--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1728458.61179567</v>
+        <v>1726571.030279268</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28.42119448601593</v>
+        <v>75.01544504740524</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.93192837829859</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>56.49576810820454</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>57.28111013508705</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>122.7253106933296</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>111.6943500844843</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>372.5327915267492</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.8915849827645</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.1951034842256</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>205.1478855987996</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.87604574171</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.35845141792576</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>156.2700357217216</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>211.2541671901475</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.58860859818582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>136.1203916976712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>87.62944893453057</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>16.50281054245861</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>31.13654107019667</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>145.3140357364307</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>222.2179949548713</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>37.96005124629375</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.2474032310321</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="D2" t="n">
-        <v>1624.583944532628</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="E2" t="n">
-        <v>1238.795691934384</v>
+        <v>554.6254674869419</v>
       </c>
       <c r="F2" t="n">
-        <v>827.8097871447767</v>
+        <v>143.6395626973344</v>
       </c>
       <c r="G2" t="n">
-        <v>409.8459790429636</v>
+        <v>129.7161586359253</v>
       </c>
       <c r="H2" t="n">
-        <v>82.6512590789664</v>
+        <v>129.7161586359253</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>330.0063923341329</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>330.0063923341329</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>111.0094142528943</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>111.0094142528943</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.2861479534</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.323631012988</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D5" t="n">
-        <v>1160.323631012988</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E5" t="n">
-        <v>1160.323631012988</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>749.3377262233805</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>331.3739181215674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574933</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.241103772297</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1585.278586831885</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>1227.012888225135</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>841.2246356268904</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F8" t="n">
-        <v>430.2387308372828</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748109</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772297</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.28147018826911</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>68.28147018826911</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>68.28147018826911</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>68.28147018826911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>68.28147018826911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>68.28147018826911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>68.28147018826911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>68.28147018826911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620389</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185088</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.07093915895</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123425</v>
@@ -5191,10 +5191,10 @@
         <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1341.06774962687</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1341.06774962687</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1341.06774962687</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>1086.383261420983</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>796.9660913840225</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X13" t="n">
-        <v>796.9660913840225</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.1735122404926</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.996260473455</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>1071.006709575437</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1043.139428163128</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,16 +5507,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,16 +5534,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.6650364395579</v>
+        <v>761.0055017299129</v>
       </c>
       <c r="C19" t="n">
-        <v>359.169691290395</v>
+        <v>592.069318802006</v>
       </c>
       <c r="D19" t="n">
-        <v>359.169691290395</v>
+        <v>592.069318802006</v>
       </c>
       <c r="E19" t="n">
-        <v>359.169691290395</v>
+        <v>444.156225219613</v>
       </c>
       <c r="F19" t="n">
-        <v>359.169691290395</v>
+        <v>297.2662777217026</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765185</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765185</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>496.6650364395579</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="X19" t="n">
-        <v>496.6650364395579</v>
+        <v>981.798080873443</v>
       </c>
       <c r="Y19" t="n">
-        <v>496.6650364395579</v>
+        <v>761.0055017299129</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,25 +5817,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491544</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>579.0685056491544</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>428.9518662368187</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>428.9518662368187</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>282.0619187389083</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>113.8865970587289</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229243</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793941</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,16 +6054,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,7 +6084,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.465218971845</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1267.545208887397</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W25" t="n">
-        <v>720.4504516500519</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>573.668597370829</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.668597370829</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,10 +6218,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>525.2850453761801</v>
+        <v>695.1010933248435</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761801</v>
+        <v>581.9257756783073</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452151</v>
+        <v>487.5700015473424</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441929</v>
+        <v>395.4177732463199</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276534</v>
+        <v>304.2886910297804</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1503.284906591123</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1304.361283666607</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386979</v>
+        <v>1070.704978911017</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220513</v>
+        <v>898.4762932943703</v>
       </c>
       <c r="Y31" t="n">
-        <v>651.1726449250489</v>
+        <v>733.444579432211</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,16 +6783,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,22 +7090,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,64 +7780,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>127.6461250100656</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>66.25702160028659</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.65077426188161</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644355</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.996044753909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>31.12642940095659</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>78.86411952884701</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>132.4110178250774</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,19 +24178,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>57.18000134477742</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>78.82781133359612</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>80.39561965260648</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338542</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>86.66867230708651</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.13399349250554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.629008122312371e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.775362162</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942819.8538595532</v>
+        <v>942819.8538595531</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185697</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852504</v>
@@ -26332,28 +26332,28 @@
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>488186.5648143236</v>
+        <v>488186.5648143235</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.06191857</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007549</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007496</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020398</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-328118.9440753049</v>
       </c>
       <c r="C6" t="n">
-        <v>261848.9351392394</v>
+        <v>261848.9351392396</v>
       </c>
       <c r="D6" t="n">
         <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963697</v>
+        <v>-155926.6815223421</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805264</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805264</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805263</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805263</v>
+        <v>369233.354954554</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879334</v>
+        <v>192810.135761961</v>
       </c>
       <c r="K6" t="n">
-        <v>321314.3968110511</v>
+        <v>321295.9030731167</v>
       </c>
       <c r="L6" t="n">
-        <v>354231.5304003502</v>
+        <v>354231.5304003499</v>
       </c>
       <c r="M6" t="n">
-        <v>229773.4219673799</v>
+        <v>229773.4219673797</v>
       </c>
       <c r="N6" t="n">
-        <v>364574.4372012169</v>
+        <v>364574.4372012167</v>
       </c>
       <c r="O6" t="n">
-        <v>364574.4372012169</v>
+        <v>364574.4372012166</v>
       </c>
       <c r="P6" t="n">
-        <v>320411.8318983711</v>
+        <v>320411.8318983709</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>123.5101217588453</v>
+        <v>76.91587119745601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>95.37787388075232</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>169.2138872808326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>324.6492599371747</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>201.1974620710275</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65885272800598</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>174.5875241574934</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>41.25137849404581</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>23.03118778159268</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>31.0048557043114</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>13.43676775329516</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.406874616804998e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>215.6591577951397</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35975,10 +35975,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915819</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37084,13 +37084,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
